--- a/pic/squaresmalle_15min_zscore_shuffle/squaresmalle_15min_zscore_shuffle.xlsx
+++ b/pic/squaresmalle_15min_zscore_shuffle/squaresmalle_15min_zscore_shuffle.xlsx
@@ -21,7 +21,6 @@
     <sheet name="color" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,22 +519,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -562,6 +549,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2000,7 +1991,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10380,7 +10371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6811F98F-1155-4CD2-9016-BBBC6332AE20}">
   <dimension ref="A1:BZ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AL40" sqref="AL40"/>
     </sheetView>
   </sheetViews>
@@ -19948,7 +19939,7 @@
       <c r="K3" s="11">
         <v>3.7149929999999998E-2</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>0.92033273000000004</v>
       </c>
       <c r="M3" s="11">
@@ -20137,7 +20128,7 @@
       <c r="BW3" s="11">
         <v>0.42293033000000002</v>
       </c>
-      <c r="BX3" s="20">
+      <c r="BX3" s="14">
         <v>0.36749809999999999</v>
       </c>
       <c r="BY3" s="11">
@@ -20184,7 +20175,7 @@
       <c r="K4" s="12">
         <v>1.1296169999999999E-2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="10">
         <v>0.86418890999999998</v>
       </c>
       <c r="M4" s="12">
@@ -20373,7 +20364,7 @@
       <c r="BW4" s="12">
         <v>0.96640998</v>
       </c>
-      <c r="BX4" s="21">
+      <c r="BX4" s="15">
         <v>0.33552282999999999</v>
       </c>
       <c r="BY4" s="12">
@@ -20420,7 +20411,7 @@
       <c r="K5" s="12">
         <v>5.0793280000000003E-2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="10">
         <v>0.83238173000000004</v>
       </c>
       <c r="M5" s="12">
@@ -20609,7 +20600,7 @@
       <c r="BW5" s="12">
         <v>0.94688152999999997</v>
       </c>
-      <c r="BX5" s="21">
+      <c r="BX5" s="15">
         <v>0.94840603999999995</v>
       </c>
       <c r="BY5" s="12">
@@ -20656,7 +20647,7 @@
       <c r="K6" s="12">
         <v>3.1785180000000003E-2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="10">
         <v>0.86894554000000002</v>
       </c>
       <c r="M6" s="12">
@@ -20845,7 +20836,7 @@
       <c r="BW6" s="12">
         <v>0.78341459999999996</v>
       </c>
-      <c r="BX6" s="21">
+      <c r="BX6" s="15">
         <v>0.95061373999999998</v>
       </c>
       <c r="BY6" s="12">
@@ -20892,7 +20883,7 @@
       <c r="K7" s="12">
         <v>6.5047600000000001E-3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="10">
         <v>0.84397811</v>
       </c>
       <c r="M7" s="12">
@@ -21081,7 +21072,7 @@
       <c r="BW7" s="12">
         <v>0.82143986000000002</v>
       </c>
-      <c r="BX7" s="21">
+      <c r="BX7" s="15">
         <v>0.93218582999999999</v>
       </c>
       <c r="BY7" s="12">
@@ -21128,7 +21119,7 @@
       <c r="K8" s="12">
         <v>2.1324630000000001E-2</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="10">
         <v>0.19114987999999999</v>
       </c>
       <c r="M8" s="12">
@@ -21317,7 +21308,7 @@
       <c r="BW8" s="12">
         <v>0.60568135999999995</v>
       </c>
-      <c r="BX8" s="21">
+      <c r="BX8" s="15">
         <v>0.23467215999999999</v>
       </c>
       <c r="BY8" s="12">
@@ -21364,7 +21355,7 @@
       <c r="K9" s="12">
         <v>5.6660199999999999E-3</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="10">
         <v>0.94735855000000002</v>
       </c>
       <c r="M9" s="12">
@@ -21553,7 +21544,7 @@
       <c r="BW9" s="12">
         <v>0.409881</v>
       </c>
-      <c r="BX9" s="21">
+      <c r="BX9" s="15">
         <v>0.13296872000000001</v>
       </c>
       <c r="BY9" s="12">
@@ -21600,7 +21591,7 @@
       <c r="K10" s="12">
         <v>1.560426E-2</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="10">
         <v>0.99889981999999999</v>
       </c>
       <c r="M10" s="12">
@@ -21789,7 +21780,7 @@
       <c r="BW10" s="12">
         <v>0.85938429999999999</v>
       </c>
-      <c r="BX10" s="21">
+      <c r="BX10" s="15">
         <v>0.52305698</v>
       </c>
       <c r="BY10" s="12">
@@ -21836,7 +21827,7 @@
       <c r="K11" s="12">
         <v>8.2388240000000001E-2</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="10">
         <v>0.98986965000000005</v>
       </c>
       <c r="M11" s="12">
@@ -22025,7 +22016,7 @@
       <c r="BW11" s="12">
         <v>0.55273086000000005</v>
       </c>
-      <c r="BX11" s="21">
+      <c r="BX11" s="15">
         <v>0.69724470000000005</v>
       </c>
       <c r="BY11" s="12">
@@ -22072,7 +22063,7 @@
       <c r="K12" s="12">
         <v>0.44118580000000002</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="10">
         <v>0.94928098000000005</v>
       </c>
       <c r="M12" s="12">
@@ -22261,7 +22252,7 @@
       <c r="BW12" s="12">
         <v>0.92217415999999997</v>
       </c>
-      <c r="BX12" s="21">
+      <c r="BX12" s="15">
         <v>0.39690930000000002</v>
       </c>
       <c r="BY12" s="12">
@@ -22308,7 +22299,7 @@
       <c r="K13" s="12">
         <v>0.50404954000000002</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="10">
         <v>0.96945572000000002</v>
       </c>
       <c r="M13" s="12">
@@ -22497,7 +22488,7 @@
       <c r="BW13" s="12">
         <v>0.93927532000000002</v>
       </c>
-      <c r="BX13" s="21">
+      <c r="BX13" s="15">
         <v>0.67974389000000002</v>
       </c>
       <c r="BY13" s="12">
@@ -22544,7 +22535,7 @@
       <c r="K14" s="12">
         <v>0.40665846999999999</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="10">
         <v>0.81623840000000003</v>
       </c>
       <c r="M14" s="12">
@@ -22733,7 +22724,7 @@
       <c r="BW14" s="12">
         <v>0.97277968999999997</v>
       </c>
-      <c r="BX14" s="21">
+      <c r="BX14" s="15">
         <v>0.79404944</v>
       </c>
       <c r="BY14" s="12">
@@ -22780,7 +22771,7 @@
       <c r="K15" s="12">
         <v>2.038624E-2</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="10">
         <v>0.91689628000000001</v>
       </c>
       <c r="M15" s="12">
@@ -22969,7 +22960,7 @@
       <c r="BW15" s="12">
         <v>0.95283424999999999</v>
       </c>
-      <c r="BX15" s="21">
+      <c r="BX15" s="15">
         <v>0.59847872999999996</v>
       </c>
       <c r="BY15" s="12">
@@ -23016,7 +23007,7 @@
       <c r="K16" s="12">
         <v>2.748424E-2</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="10">
         <v>0.72333205</v>
       </c>
       <c r="M16" s="12">
@@ -23205,7 +23196,7 @@
       <c r="BW16" s="12">
         <v>0.89898127000000005</v>
       </c>
-      <c r="BX16" s="21">
+      <c r="BX16" s="15">
         <v>0.43522903000000002</v>
       </c>
       <c r="BY16" s="12">
@@ -23252,7 +23243,7 @@
       <c r="K17" s="12">
         <v>2.9426040000000001E-2</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="10">
         <v>0.83568012999999997</v>
       </c>
       <c r="M17" s="12">
@@ -23438,7 +23429,7 @@
       <c r="BW17" s="12">
         <v>0.87170309000000001</v>
       </c>
-      <c r="BX17" s="21">
+      <c r="BX17" s="15">
         <v>0.13970187000000001</v>
       </c>
       <c r="BY17" s="12">
@@ -23485,7 +23476,7 @@
       <c r="K18" s="12">
         <v>0.10334728999999999</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="10">
         <v>0.99442260999999998</v>
       </c>
       <c r="M18" s="12">
@@ -23671,7 +23662,7 @@
       <c r="BW18" s="12">
         <v>0.83528053999999996</v>
       </c>
-      <c r="BX18" s="21">
+      <c r="BX18" s="15">
         <v>0.52437568000000001</v>
       </c>
       <c r="BY18" s="12">
@@ -23718,7 +23709,7 @@
       <c r="K19" s="12">
         <v>2.997609E-2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="10">
         <v>0.92123728999999999</v>
       </c>
       <c r="M19" s="12">
@@ -23904,7 +23895,7 @@
       <c r="BW19" s="12">
         <v>0.26509860000000002</v>
       </c>
-      <c r="BX19" s="21">
+      <c r="BX19" s="15">
         <v>0.17464658999999999</v>
       </c>
       <c r="BY19" s="12">
@@ -23951,7 +23942,7 @@
       <c r="K20" s="12">
         <v>2.2700330000000001E-2</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="10">
         <v>0.93481654000000003</v>
       </c>
       <c r="M20" s="12">
@@ -24137,7 +24128,7 @@
       <c r="BW20" s="12">
         <v>0.71396846000000003</v>
       </c>
-      <c r="BX20" s="21">
+      <c r="BX20" s="15">
         <v>0.51637518000000004</v>
       </c>
       <c r="BY20" s="12">
@@ -24184,7 +24175,7 @@
       <c r="K21" s="12">
         <v>0.31647596</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="10">
         <v>0.94125163999999995</v>
       </c>
       <c r="M21" s="12">
@@ -24370,7 +24361,7 @@
       <c r="BW21" s="12">
         <v>0.73907321999999998</v>
       </c>
-      <c r="BX21" s="21">
+      <c r="BX21" s="15">
         <v>0.365035</v>
       </c>
       <c r="BY21" s="12">
@@ -24417,7 +24408,7 @@
       <c r="K22" s="12">
         <v>3.0393949999999999E-2</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="10">
         <v>0.84651940999999997</v>
       </c>
       <c r="M22" s="12">
@@ -24603,7 +24594,7 @@
       <c r="BW22" s="12">
         <v>0.28085068000000002</v>
       </c>
-      <c r="BX22" s="21">
+      <c r="BX22" s="15">
         <v>0.36813270999999997</v>
       </c>
       <c r="BY22" s="12">
@@ -24650,7 +24641,7 @@
       <c r="K23" s="12">
         <v>1.458359E-2</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="10">
         <v>0.90048099000000004</v>
       </c>
       <c r="M23" s="12">
@@ -24836,7 +24827,7 @@
       <c r="BW23" s="12">
         <v>0.35389268000000002</v>
       </c>
-      <c r="BX23" s="21">
+      <c r="BX23" s="15">
         <v>0.19381200000000001</v>
       </c>
       <c r="BY23" s="12">
@@ -24883,7 +24874,7 @@
       <c r="K24" s="12">
         <v>0.22759077</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="10">
         <v>0.96386218000000001</v>
       </c>
       <c r="M24" s="12">
@@ -25069,7 +25060,7 @@
       <c r="BW24" s="12">
         <v>0.85595911999999996</v>
       </c>
-      <c r="BX24" s="21">
+      <c r="BX24" s="15">
         <v>0.21644035</v>
       </c>
       <c r="BY24" s="12">
@@ -25116,7 +25107,7 @@
       <c r="K25" s="12">
         <v>3.433245E-2</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="10">
         <v>0.98685467000000004</v>
       </c>
       <c r="M25" s="12">
@@ -25302,7 +25293,7 @@
       <c r="BW25" s="12">
         <v>0.83441692999999995</v>
       </c>
-      <c r="BX25" s="21">
+      <c r="BX25" s="15">
         <v>0.36226459999999999</v>
       </c>
       <c r="BY25" s="12">
@@ -25349,7 +25340,7 @@
       <c r="K26" s="12">
         <v>3.4383589999999999E-2</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="10">
         <v>0.90168411000000004</v>
       </c>
       <c r="M26" s="12">
@@ -25535,7 +25526,7 @@
       <c r="BW26" s="12">
         <v>0.70460944999999997</v>
       </c>
-      <c r="BX26" s="21">
+      <c r="BX26" s="15">
         <v>0.84423888000000002</v>
       </c>
       <c r="BY26" s="12">
@@ -25582,7 +25573,7 @@
       <c r="K27" s="12">
         <v>9.8010959999999994E-2</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="10">
         <v>0.97927010000000003</v>
       </c>
       <c r="M27" s="12">
@@ -25768,7 +25759,7 @@
       <c r="BW27" s="12">
         <v>0.73595363000000003</v>
       </c>
-      <c r="BX27" s="21">
+      <c r="BX27" s="15">
         <v>0.84996008999999995</v>
       </c>
       <c r="BY27" s="12">
@@ -25815,7 +25806,7 @@
       <c r="K28" s="12">
         <v>2.3544430000000002E-2</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="10">
         <v>0.91491454999999999</v>
       </c>
       <c r="M28" s="12">
@@ -26001,7 +25992,7 @@
       <c r="BW28" s="12">
         <v>0.41039392000000002</v>
       </c>
-      <c r="BX28" s="21">
+      <c r="BX28" s="15">
         <v>0.94462155999999997</v>
       </c>
       <c r="BY28" s="12">
@@ -26045,7 +26036,7 @@
       <c r="K29" s="12">
         <v>7.1954219999999999E-2</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="10">
         <v>0.92330741999999999</v>
       </c>
       <c r="M29" s="12">
@@ -26231,7 +26222,7 @@
       <c r="BW29" s="12">
         <v>0.36814952000000001</v>
       </c>
-      <c r="BX29" s="21">
+      <c r="BX29" s="15">
         <v>0.82934779000000003</v>
       </c>
       <c r="BY29" s="12">
@@ -26272,7 +26263,7 @@
       <c r="K30" s="12">
         <v>7.6476329999999995E-2</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="10">
         <v>0.92242663999999996</v>
       </c>
       <c r="M30" s="12">
@@ -26452,7 +26443,7 @@
       <c r="BW30" s="12">
         <v>4.5087259999999997E-2</v>
       </c>
-      <c r="BX30" s="21">
+      <c r="BX30" s="15">
         <v>0.57602869999999995</v>
       </c>
       <c r="BY30" s="12">
@@ -26490,7 +26481,7 @@
       <c r="K31" s="12">
         <v>1.0067700000000001E-2</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="10">
         <v>0.92878782999999998</v>
       </c>
       <c r="M31" s="12">
@@ -26667,7 +26658,7 @@
       <c r="BW31" s="12">
         <v>0.80680352</v>
       </c>
-      <c r="BX31" s="21">
+      <c r="BX31" s="15">
         <v>0.63786739000000003</v>
       </c>
       <c r="BY31" s="12">
@@ -26702,7 +26693,7 @@
       <c r="K32" s="12">
         <v>2.5327430000000001E-2</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="10">
         <v>0.99821495999999998</v>
       </c>
       <c r="M32" s="12">
@@ -26867,7 +26858,7 @@
       <c r="BW32" s="12">
         <v>0.96180785000000002</v>
       </c>
-      <c r="BX32" s="21">
+      <c r="BX32" s="15">
         <v>0.41315696000000002</v>
       </c>
       <c r="BY32" s="12">
@@ -26899,7 +26890,7 @@
       <c r="K33" s="13">
         <v>0.35944730000000003</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <v>0.99845492999999996</v>
       </c>
       <c r="M33" s="13">
@@ -27052,7 +27043,7 @@
       <c r="BW33" s="12">
         <v>0.51723015000000006</v>
       </c>
-      <c r="BX33" s="21">
+      <c r="BX33" s="15">
         <v>0.63472711999999998</v>
       </c>
       <c r="BY33" s="12">
@@ -27213,7 +27204,7 @@
       <c r="BW34" s="12">
         <v>7.1596499999999993E-2</v>
       </c>
-      <c r="BX34" s="21">
+      <c r="BX34" s="15">
         <v>0.87505608999999995</v>
       </c>
       <c r="BY34" s="12">
@@ -27365,7 +27356,7 @@
       <c r="BW35" s="12">
         <v>0.70359700999999997</v>
       </c>
-      <c r="BX35" s="21">
+      <c r="BX35" s="15">
         <v>0.91283941000000002</v>
       </c>
       <c r="BY35" s="12">
@@ -27496,7 +27487,7 @@
       <c r="BW36" s="12">
         <v>0.75639296</v>
       </c>
-      <c r="BX36" s="21">
+      <c r="BX36" s="15">
         <v>0.64599329000000005</v>
       </c>
       <c r="BY36" s="12">
@@ -27606,7 +27597,7 @@
       <c r="BW37" s="12">
         <v>0.42577197999999999</v>
       </c>
-      <c r="BX37" s="21">
+      <c r="BX37" s="15">
         <v>0.20302285</v>
       </c>
       <c r="BY37" s="12">
@@ -27701,7 +27692,7 @@
       <c r="BW38" s="12">
         <v>0.71113658000000002</v>
       </c>
-      <c r="BX38" s="22">
+      <c r="BX38" s="16">
         <v>0.39505124000000003</v>
       </c>
       <c r="BY38" s="12">
@@ -27919,552 +27910,552 @@
     </row>
     <row r="46" spans="2:80" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:80" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="B47" s="19">
         <f>AVERAGE(B3:B45)</f>
         <v>0.23614630192307698</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="19">
         <f t="shared" ref="C47:BO47" si="0">AVERAGE(C3:C45)</f>
         <v>0.29825207571428564</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="19">
         <f t="shared" si="0"/>
         <v>0.14716069806451615</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="19">
         <f t="shared" si="0"/>
         <v>0.99049938962962958</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="19">
         <f t="shared" si="0"/>
         <v>0.48786142281249983</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="19">
         <f t="shared" si="0"/>
         <v>0.66329943896551713</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="19">
         <f t="shared" si="0"/>
         <v>0.27862266321428575</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="19">
         <f t="shared" si="0"/>
         <v>0.33210736966666671</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="19">
         <f t="shared" si="0"/>
         <v>0.82035663290322591</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="19">
         <f t="shared" si="0"/>
         <v>0.10226823193548384</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="19">
         <f t="shared" si="0"/>
         <v>0.89433852741935482</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="19">
         <f t="shared" si="0"/>
         <v>0.4704191203225806</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="19">
         <f t="shared" si="0"/>
         <v>0.10885335740740743</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="19">
         <f t="shared" si="0"/>
         <v>0.32015420481481482</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P47" s="19">
         <f t="shared" si="0"/>
         <v>8.7411583666666681E-2</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="19">
         <f t="shared" si="0"/>
         <v>0.30727410103448277</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="19">
         <f t="shared" si="0"/>
         <v>0.94500351517241388</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="19">
         <f t="shared" si="0"/>
         <v>0.35468362666666675</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="19">
         <f t="shared" si="0"/>
         <v>8.4958993793103441E-2</v>
       </c>
-      <c r="U47" s="23">
+      <c r="U47" s="19">
         <f t="shared" si="0"/>
         <v>0.2941284025</v>
       </c>
-      <c r="V47" s="23">
+      <c r="V47" s="19">
         <f t="shared" si="0"/>
         <v>0.45549825857142873</v>
       </c>
-      <c r="W47" s="23">
+      <c r="W47" s="19">
         <f t="shared" si="0"/>
         <v>0.11216800933333332</v>
       </c>
-      <c r="X47" s="23">
+      <c r="X47" s="19">
         <f t="shared" si="0"/>
         <v>0.55034103500000009</v>
       </c>
-      <c r="Z47" s="23">
+      <c r="Z47" s="19">
         <f t="shared" si="0"/>
         <v>0.83019684184210529</v>
       </c>
-      <c r="AA47" s="23">
+      <c r="AA47" s="19">
         <f t="shared" si="0"/>
         <v>0.95133423777777759</v>
       </c>
-      <c r="AB47" s="23">
+      <c r="AB47" s="19">
         <f t="shared" si="0"/>
         <v>0.99060269696969705</v>
       </c>
-      <c r="AC47" s="23">
+      <c r="AC47" s="19">
         <f t="shared" si="0"/>
         <v>0.99512604093750001</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AD47" s="19">
         <f t="shared" si="0"/>
         <v>0.93547308651162775</v>
       </c>
-      <c r="AE47" s="23">
+      <c r="AE47" s="19">
         <f t="shared" si="0"/>
         <v>0.79186613361111102</v>
       </c>
-      <c r="AF47" s="23">
+      <c r="AF47" s="19">
         <f t="shared" si="0"/>
         <v>0.43342650499999991</v>
       </c>
-      <c r="AG47" s="23">
+      <c r="AG47" s="19">
         <f t="shared" si="0"/>
         <v>0.80061115225806456</v>
       </c>
-      <c r="AH47" s="23">
+      <c r="AH47" s="19">
         <f t="shared" si="0"/>
         <v>0.99778490823529398</v>
       </c>
-      <c r="AI47" s="23">
+      <c r="AI47" s="19">
         <f t="shared" si="0"/>
         <v>0.99074084218749991</v>
       </c>
-      <c r="AJ47" s="23">
+      <c r="AJ47" s="19">
         <f t="shared" si="0"/>
         <v>0.94994420545454561</v>
       </c>
-      <c r="AK47" s="23">
+      <c r="AK47" s="19">
         <f t="shared" si="0"/>
         <v>0.99201271027027038</v>
       </c>
-      <c r="AL47" s="23">
+      <c r="AL47" s="19">
         <f t="shared" si="0"/>
         <v>0.46727679818181811</v>
       </c>
-      <c r="AM47" s="23">
+      <c r="AM47" s="19">
         <f t="shared" si="0"/>
         <v>0.96543421212121205</v>
       </c>
-      <c r="AN47" s="23">
+      <c r="AN47" s="19">
         <f t="shared" si="0"/>
         <v>0.61130375736842091</v>
       </c>
-      <c r="AO47" s="23">
+      <c r="AO47" s="19">
         <f t="shared" si="0"/>
         <v>0.97143484119047607</v>
       </c>
-      <c r="AP47" s="23">
+      <c r="AP47" s="19">
         <f t="shared" si="0"/>
         <v>0.89252581606060621</v>
       </c>
-      <c r="AQ47" s="23">
+      <c r="AQ47" s="19">
         <f t="shared" si="0"/>
         <v>0.59678649648648641</v>
       </c>
-      <c r="AR47" s="23">
+      <c r="AR47" s="19">
         <f t="shared" si="0"/>
         <v>0.99988112322580625</v>
       </c>
-      <c r="AS47" s="23">
+      <c r="AS47" s="19">
         <f t="shared" si="0"/>
         <v>0.90492154684210524</v>
       </c>
-      <c r="AT47" s="23">
+      <c r="AT47" s="19">
         <f t="shared" si="0"/>
         <v>0.80108472476190484</v>
       </c>
-      <c r="AU47" s="23">
+      <c r="AU47" s="19">
         <f t="shared" si="0"/>
         <v>0.99194747243243231</v>
       </c>
-      <c r="AV47" s="23">
+      <c r="AV47" s="19">
         <f t="shared" si="0"/>
         <v>0.89484752571428572</v>
       </c>
-      <c r="AW47" s="23">
+      <c r="AW47" s="19">
         <f t="shared" si="0"/>
         <v>0.6422766551612904</v>
       </c>
-      <c r="AX47" s="23">
+      <c r="AX47" s="19">
         <f t="shared" si="0"/>
         <v>0.98324641352941189</v>
       </c>
-      <c r="AY47" s="23">
+      <c r="AY47" s="19">
         <f t="shared" si="0"/>
         <v>0.99214196499999996</v>
       </c>
-      <c r="AZ47" s="23">
+      <c r="AZ47" s="19">
         <f t="shared" si="0"/>
         <v>0.83625315775000009</v>
       </c>
-      <c r="BA47" s="23">
+      <c r="BA47" s="19">
         <f t="shared" si="0"/>
         <v>0.23118889756756755</v>
       </c>
-      <c r="BB47" s="23">
+      <c r="BB47" s="19">
         <f t="shared" si="0"/>
         <v>0.70704584828571437</v>
       </c>
-      <c r="BC47" s="23">
+      <c r="BC47" s="19">
         <f t="shared" si="0"/>
         <v>0.95480601151515143</v>
       </c>
-      <c r="BD47" s="23">
+      <c r="BD47" s="19">
         <f t="shared" si="0"/>
         <v>0.93862510058823545</v>
       </c>
-      <c r="BE47" s="23">
+      <c r="BE47" s="19">
         <f t="shared" si="0"/>
         <v>0.97515150452380961</v>
       </c>
-      <c r="BF47" s="23">
+      <c r="BF47" s="19">
         <f t="shared" si="0"/>
         <v>0.8255057170588237</v>
       </c>
-      <c r="BG47" s="23">
+      <c r="BG47" s="19">
         <f t="shared" si="0"/>
         <v>0.96085169411764704</v>
       </c>
-      <c r="BH47" s="23">
+      <c r="BH47" s="19">
         <f t="shared" si="0"/>
         <v>0.98359333864864829</v>
       </c>
-      <c r="BI47" s="23">
+      <c r="BI47" s="19">
         <f t="shared" si="0"/>
         <v>0.97223848285714309</v>
       </c>
-      <c r="BJ47" s="23">
+      <c r="BJ47" s="19">
         <f t="shared" si="0"/>
         <v>0.94169874111111129</v>
       </c>
-      <c r="BK47" s="23">
+      <c r="BK47" s="19">
         <f t="shared" si="0"/>
         <v>0.90832545864864866</v>
       </c>
-      <c r="BL47" s="23">
+      <c r="BL47" s="19">
         <f t="shared" si="0"/>
         <v>0.77455331125000004</v>
       </c>
-      <c r="BM47" s="23">
+      <c r="BM47" s="19">
         <f t="shared" si="0"/>
         <v>0.90166169799999984</v>
       </c>
-      <c r="BN47" s="23">
+      <c r="BN47" s="19">
         <f t="shared" si="0"/>
         <v>0.80378661525000017</v>
       </c>
-      <c r="BO47" s="23">
+      <c r="BO47" s="19">
         <f t="shared" si="0"/>
         <v>0.87726869666666674</v>
       </c>
-      <c r="BP47" s="23">
+      <c r="BP47" s="19">
         <f t="shared" ref="BP47:CB47" si="1">AVERAGE(BP3:BP45)</f>
         <v>0.69764466448275853</v>
       </c>
-      <c r="BQ47" s="23">
+      <c r="BQ47" s="19">
         <f t="shared" si="1"/>
         <v>0.13761497617647062</v>
       </c>
-      <c r="BR47" s="23">
+      <c r="BR47" s="19">
         <f t="shared" si="1"/>
         <v>0.95713351722222206</v>
       </c>
-      <c r="BS47" s="23">
+      <c r="BS47" s="19">
         <f t="shared" si="1"/>
         <v>0.81813346527777786</v>
       </c>
-      <c r="BT47" s="23">
+      <c r="BT47" s="19">
         <f t="shared" si="1"/>
         <v>0.26166454545454548</v>
       </c>
-      <c r="BU47" s="23">
+      <c r="BU47" s="19">
         <f t="shared" si="1"/>
         <v>0.83215806861111108</v>
       </c>
-      <c r="BV47" s="23">
+      <c r="BV47" s="19">
         <f t="shared" si="1"/>
         <v>0.95468877135135122</v>
       </c>
-      <c r="BW47" s="23">
+      <c r="BW47" s="19">
         <f t="shared" si="1"/>
         <v>0.66511776351351348</v>
       </c>
-      <c r="BX47" s="23">
+      <c r="BX47" s="19">
         <f t="shared" si="1"/>
         <v>0.54581319000000006</v>
       </c>
-      <c r="BY47" s="23">
+      <c r="BY47" s="19">
         <f t="shared" si="1"/>
         <v>0.86947148051282053</v>
       </c>
-      <c r="BZ47" s="23">
+      <c r="BZ47" s="19">
         <f t="shared" si="1"/>
         <v>0.99009491941176453</v>
       </c>
-      <c r="CA47" s="23">
+      <c r="CA47" s="19">
         <f t="shared" si="1"/>
         <v>0.98605244324324348</v>
       </c>
-      <c r="CB47" s="23">
+      <c r="CB47" s="19">
         <f t="shared" si="1"/>
         <v>0.99709850023809532</v>
       </c>
     </row>
     <row r="48" spans="2:80" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+      <c r="B48" s="19">
         <v>0</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="19">
         <v>0</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="19">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="19">
         <v>0</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="19">
         <v>0</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="19">
         <v>0</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="19">
         <v>0</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="19">
         <v>0</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="19">
         <v>0</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="19">
         <v>0</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="19">
         <v>0</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="19">
         <v>0</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="19">
         <v>0</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="19">
         <v>0</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="19">
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="19">
         <v>0</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T48" s="19">
         <v>0</v>
       </c>
-      <c r="U48" s="23">
+      <c r="U48" s="19">
         <v>0</v>
       </c>
-      <c r="V48" s="23">
+      <c r="V48" s="19">
         <v>0</v>
       </c>
-      <c r="W48" s="23">
+      <c r="W48" s="19">
         <v>0</v>
       </c>
-      <c r="X48" s="23">
+      <c r="X48" s="19">
         <v>0</v>
       </c>
-      <c r="Z48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AN48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AP48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AQ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AS48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AV48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AX48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AY48" s="23">
-        <v>1</v>
-      </c>
-      <c r="AZ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BA48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BB48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BC48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BD48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BE48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BF48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BG48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BH48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BI48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BJ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BK48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BL48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BM48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BN48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BO48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BP48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BQ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BR48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BS48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BT48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BU48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BV48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BW48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BX48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BY48" s="23">
-        <v>1</v>
-      </c>
-      <c r="BZ48" s="23">
-        <v>1</v>
-      </c>
-      <c r="CA48" s="23">
-        <v>1</v>
-      </c>
-      <c r="CB48" s="23">
+      <c r="Z48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AV48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BC48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BF48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BG48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BJ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BK48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BL48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BM48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BN48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BO48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BP48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BQ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BR48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BS48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BT48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BU48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BV48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BW48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BX48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BY48" s="19">
+        <v>1</v>
+      </c>
+      <c r="BZ48" s="19">
+        <v>1</v>
+      </c>
+      <c r="CA48" s="19">
+        <v>1</v>
+      </c>
+      <c r="CB48" s="19">
         <v>1</v>
       </c>
     </row>
